--- a/20210801일_환율정보.xlsx
+++ b/20210801일_환율정보.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1020a\Documents\UiPath\0801_미니프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547A3C9-1A78-4BAF-9D28-B8F88643E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79425D7F-54BB-416A-B862-A15E716B4551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="984" windowWidth="17280" windowHeight="8964" xr2:uid="{ED5A00AF-FEDC-4625-A747-5366DC0CEF0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ED5A00AF-FEDC-4625-A747-5366DC0CEF0D}"/>
   </bookViews>
   <sheets>
     <sheet name="환율20210801" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="stock" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>국가명 -</t>
   </si>
@@ -379,6 +379,46 @@
   </si>
   <si>
     <t>▲1.77</t>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>068270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀트리온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC0CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +488,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87A30BE-0090-4BB2-BE4C-5030159EAA3B}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2147,13 +2202,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC674F0C-7F5B-4EBB-BAA8-1E1DC72CA9F5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>